--- a/Copy of Participant mental health disorder and social problem.xlsx
+++ b/Copy of Participant mental health disorder and social problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B199526\Desktop\GitHub repos\Group-based-interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3357EE06-07A2-494A-82B8-9F2EF6CD1328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182513B-93D0-4622-AA06-F5744079EDB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A44" sqref="A42:XFD44"/>
+      <selection pane="topRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AF44" s="29"/>
     </row>
-    <row r="45" spans="1:32" s="30" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="30" customFormat="1" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>228</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="AE45" s="29"/>
       <c r="AF45" s="29"/>
     </row>
-    <row r="46" spans="1:32" s="30" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" s="30" customFormat="1" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>229</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="AE46" s="29"/>
       <c r="AF46" s="29"/>
     </row>
-    <row r="47" spans="1:32" s="26" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" s="26" customFormat="1" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>231</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="30" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" s="30" customFormat="1" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>230</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="AE48" s="29"/>
       <c r="AF48" s="29"/>
     </row>
-    <row r="49" spans="1:35" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>48</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="26" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" s="26" customFormat="1" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>49</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="AF50" s="25"/>
     </row>
-    <row r="51" spans="1:35" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>223</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>170</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="30" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" s="30" customFormat="1" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>224</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="AE53" s="29"/>
       <c r="AF53" s="29"/>
     </row>
-    <row r="54" spans="1:35" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>50</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>174</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="26" customFormat="1" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" s="26" customFormat="1" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>51</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="AF56" s="25"/>
     </row>
-    <row r="57" spans="1:35" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>52</v>
       </c>
